--- a/xlsx/Acura_intext.xlsx
+++ b/xlsx/Acura_intext.xlsx
@@ -29,19 +29,19 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Acura</t>
+    <t>政策_政策_混合动力车辆_Acura</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD</t>
   </si>
   <si>
-    <t>東京都</t>
+    <t>东京都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8D%80_(%E6%9D%B1%E4%BA%AC%E9%83%BD)</t>
   </si>
   <si>
-    <t>港區 (東京都)</t>
+    <t>港区 (东京都)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>本田汽車</t>
+    <t>本田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VTEC</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BB%8A</t>
   </si>
   <si>
-    <t>運動型多用途車</t>
+    <t>运动型多用途车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0NSX</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>大型車</t>
+    <t>大型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B4%E6%AD%8C</t>
